--- a/data/trans_camb/Q23_R2-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/Q23_R2-Provincia-trans_camb.xlsx
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,7; 6,84</t>
+          <t>-9,04; 8,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,95; 13,9</t>
+          <t>-7,53; 13,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,23; 6,28</t>
+          <t>-6,05; 7,44</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-20,7; 17,33</t>
+          <t>-19,03; 20,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-19,03; 62,41</t>
+          <t>-20,87; 54,83</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-15,24; 17,95</t>
+          <t>-14,21; 21,07</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-18,04; 1,71</t>
+          <t>-17,75; 1,59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-14,29; 11,58</t>
+          <t>-13,35; 11,95</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-13,4; 2,57</t>
+          <t>-12,97; 2,59</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-38,52; 4,8</t>
+          <t>-37,76; 4,65</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-42,48; 56,09</t>
+          <t>-40,49; 57,95</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-32,42; 7,64</t>
+          <t>-31,66; 8,08</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 15,11</t>
+          <t>-0,54; 16,36</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,22; 11,92</t>
+          <t>-5,37; 12,78</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,27; 12,7</t>
+          <t>0,07; 11,65</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 58,94</t>
+          <t>-1,85; 64,14</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-19,67; 74,91</t>
+          <t>-20,46; 79,25</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,12; 56,43</t>
+          <t>-0,19; 49,11</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>7,98; 29,67</t>
+          <t>7,93; 31,04</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-10,06; 18,29</t>
+          <t>-9,07; 19,35</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>3,93; 22,58</t>
+          <t>5,15; 22,65</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>28,76; 188,77</t>
+          <t>27,3; 201,05</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-27,41; 94,31</t>
+          <t>-25,98; 96,91</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>12,04; 112,08</t>
+          <t>18,69; 116,03</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-13,43; 8,1</t>
+          <t>-14,09; 8,88</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-16,14; 13,16</t>
+          <t>-16,57; 12,68</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-11,52; 5,84</t>
+          <t>-10,85; 7,21</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-29,27; 22,62</t>
+          <t>-31,1; 26,83</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-41,63; 53,91</t>
+          <t>-43,44; 51,84</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-28,38; 17,13</t>
+          <t>-26,13; 22,59</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-6,41; 7,55</t>
+          <t>-7,1; 6,83</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-7,44; 8,89</t>
+          <t>-8,99; 7,89</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-5,81; 5,74</t>
+          <t>-6,18; 5,24</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,17 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-16,23; 24,42</t>
+          <t>-17,92; 20,71</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-23,23; 38,24</t>
+          <t>-26,93; 32,99</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-16,24; 19,63</t>
+          <t>-16,97; 17,66</t>
         </is>
       </c>
     </row>
@@ -1251,17 +1251,17 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-9,21; 2,77</t>
+          <t>-9,64; 3,42</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-8,04; 7,63</t>
+          <t>-7,88; 8,27</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-6,67; 3,3</t>
+          <t>-7,03; 2,92</t>
         </is>
       </c>
     </row>
@@ -1297,17 +1297,17 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-25,65; 10,31</t>
+          <t>-26,8; 11,91</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-26,36; 34,9</t>
+          <t>-26,86; 37,63</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-20,68; 12,35</t>
+          <t>-21,82; 10,42</t>
         </is>
       </c>
     </row>
@@ -1347,17 +1347,17 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 3,63</t>
+          <t>-2,36; 3,57</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 4,74</t>
+          <t>-2,64; 4,84</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 3,24</t>
+          <t>-1,86; 3,15</t>
         </is>
       </c>
     </row>
@@ -1393,17 +1393,17 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-7,04; 10,68</t>
+          <t>-6,24; 10,61</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-9,46; 19,11</t>
+          <t>-8,9; 19,4</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 10,26</t>
+          <t>-5,47; 10,01</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/Q23_R2-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/Q23_R2-Provincia-trans_camb.xlsx
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,04; 8,08</t>
+          <t>-9,38; 7,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 13,21</t>
+          <t>-6,72; 13,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 7,44</t>
+          <t>-5,9; 7,02</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-19,03; 20,4</t>
+          <t>-19,41; 18,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-20,87; 54,83</t>
+          <t>-19,69; 56,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-14,21; 21,07</t>
+          <t>-14,43; 20,4</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-17,75; 1,59</t>
+          <t>-17,48; 2,2</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-13,35; 11,95</t>
+          <t>-12,81; 10,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-12,97; 2,59</t>
+          <t>-12,14; 3,25</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-37,76; 4,65</t>
+          <t>-37,3; 6,17</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-40,49; 57,95</t>
+          <t>-38,0; 53,34</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-31,66; 8,08</t>
+          <t>-30,11; 10,54</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 16,36</t>
+          <t>-0,08; 15,67</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,37; 12,78</t>
+          <t>-5,25; 12,32</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,07; 11,65</t>
+          <t>0,52; 12,35</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 64,14</t>
+          <t>-0,03; 63,27</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-20,46; 79,25</t>
+          <t>-19,77; 72,06</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 49,11</t>
+          <t>1,72; 54,55</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>7,93; 31,04</t>
+          <t>7,78; 31,04</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-9,07; 19,35</t>
+          <t>-9,93; 19,32</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>5,15; 22,65</t>
+          <t>3,7; 22,02</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>27,3; 201,05</t>
+          <t>26,67; 211,17</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-25,98; 96,91</t>
+          <t>-26,81; 92,05</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>18,69; 116,03</t>
+          <t>12,88; 112,42</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-14,09; 8,88</t>
+          <t>-14,3; 7,95</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-16,57; 12,68</t>
+          <t>-16,02; 12,12</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-10,85; 7,21</t>
+          <t>-11,33; 6,17</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-31,1; 26,83</t>
+          <t>-31,17; 22,86</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-43,44; 51,84</t>
+          <t>-42,93; 50,34</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-26,13; 22,59</t>
+          <t>-26,78; 19,3</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-7,1; 6,83</t>
+          <t>-7,18; 8,05</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-8,99; 7,89</t>
+          <t>-8,08; 8,59</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-6,18; 5,24</t>
+          <t>-5,11; 5,5</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,17 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-17,92; 20,71</t>
+          <t>-17,96; 24,93</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-26,93; 32,99</t>
+          <t>-25,43; 36,46</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-16,97; 17,66</t>
+          <t>-14,25; 18,13</t>
         </is>
       </c>
     </row>
@@ -1251,17 +1251,17 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-9,64; 3,42</t>
+          <t>-10,8; 3,98</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-7,88; 8,27</t>
+          <t>-8,18; 8,22</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-7,03; 2,92</t>
+          <t>-6,68; 3,22</t>
         </is>
       </c>
     </row>
@@ -1297,17 +1297,17 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-26,8; 11,91</t>
+          <t>-28,9; 14,52</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-26,86; 37,63</t>
+          <t>-26,06; 38,16</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-21,82; 10,42</t>
+          <t>-20,69; 11,37</t>
         </is>
       </c>
     </row>
@@ -1347,17 +1347,17 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 3,57</t>
+          <t>-2,57; 3,71</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 4,84</t>
+          <t>-2,85; 4,84</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 3,15</t>
+          <t>-1,52; 3,35</t>
         </is>
       </c>
     </row>
@@ -1393,17 +1393,17 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 10,61</t>
+          <t>-6,87; 10,87</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-8,9; 19,4</t>
+          <t>-9,63; 19,21</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-5,47; 10,01</t>
+          <t>-4,52; 10,85</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/Q23_R2-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/Q23_R2-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,38; 7,35</t>
+          <t>-9,7; 6,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,72; 13,39</t>
+          <t>-6,95; 13,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,9; 7,02</t>
+          <t>-6,23; 6,28</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-19,41; 18,57</t>
+          <t>-20,7; 17,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-19,69; 56,28</t>
+          <t>-19,03; 62,41</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-14,43; 20,4</t>
+          <t>-15,24; 17,95</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-17,48; 2,2</t>
+          <t>-18,04; 1,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-12,81; 10,88</t>
+          <t>-14,29; 11,58</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-12,14; 3,25</t>
+          <t>-13,4; 2,57</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-37,3; 6,17</t>
+          <t>-38,52; 4,8</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-38,0; 53,34</t>
+          <t>-42,48; 56,09</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-30,11; 10,54</t>
+          <t>-32,42; 7,64</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 15,67</t>
+          <t>-0,65; 15,11</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,25; 12,32</t>
+          <t>-5,22; 11,92</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,52; 12,35</t>
+          <t>0,27; 12,7</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 63,27</t>
+          <t>-1,88; 58,94</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-19,77; 72,06</t>
+          <t>-19,67; 74,91</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,72; 54,55</t>
+          <t>1,12; 56,43</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>7,78; 31,04</t>
+          <t>7,98; 29,67</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-9,93; 19,32</t>
+          <t>-10,06; 18,29</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>3,7; 22,02</t>
+          <t>3,93; 22,58</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>26,67; 211,17</t>
+          <t>28,76; 188,77</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-26,81; 92,05</t>
+          <t>-27,41; 94,31</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>12,88; 112,42</t>
+          <t>12,04; 112,08</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-14,3; 7,95</t>
+          <t>-13,43; 8,1</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-16,02; 12,12</t>
+          <t>-16,14; 13,16</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-11,33; 6,17</t>
+          <t>-11,52; 5,84</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-31,17; 22,86</t>
+          <t>-29,27; 22,62</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-42,93; 50,34</t>
+          <t>-41,63; 53,91</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-26,78; 19,3</t>
+          <t>-28,38; 17,13</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-7,18; 8,05</t>
+          <t>-6,41; 7,55</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-8,08; 8,59</t>
+          <t>-7,44; 8,89</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 5,5</t>
+          <t>-5,81; 5,74</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,17 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-17,96; 24,93</t>
+          <t>-16,23; 24,42</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-25,43; 36,46</t>
+          <t>-23,23; 38,24</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-14,25; 18,13</t>
+          <t>-16,24; 19,63</t>
         </is>
       </c>
     </row>
@@ -1251,17 +1251,17 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-10,8; 3,98</t>
+          <t>-9,21; 2,77</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-8,18; 8,22</t>
+          <t>-8,04; 7,63</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-6,68; 3,22</t>
+          <t>-6,67; 3,3</t>
         </is>
       </c>
     </row>
@@ -1297,17 +1297,17 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-28,9; 14,52</t>
+          <t>-25,65; 10,31</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-26,06; 38,16</t>
+          <t>-26,36; 34,9</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-20,69; 11,37</t>
+          <t>-20,68; 12,35</t>
         </is>
       </c>
     </row>
@@ -1347,17 +1347,17 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 3,71</t>
+          <t>-2,67; 3,63</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 4,84</t>
+          <t>-2,73; 4,74</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 3,35</t>
+          <t>-1,76; 3,24</t>
         </is>
       </c>
     </row>
@@ -1393,17 +1393,17 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-6,87; 10,87</t>
+          <t>-7,04; 10,68</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-9,63; 19,21</t>
+          <t>-9,46; 19,11</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 10,85</t>
+          <t>-5,09; 10,26</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/Q23_R2-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/Q23_R2-Provincia-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -50,6 +50,34 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -476,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -492,12 +520,18 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se encuentra en el primer cuartil de la edad de comienzo de consumo de tabaco</t>
+          <t>Población cuyo comienzo de consumo de tabaco fue antes de los 15 años</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -506,16 +540,22 @@
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -527,12 +567,42 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>2016/2007</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023/2007</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>2012/2007</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016/2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023/2007</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>2012/2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016/2007</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023/2007</t>
         </is>
       </c>
     </row>
@@ -542,6 +612,12 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -556,17 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>4,78</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>21,48</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>6,9</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>6,06</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>18,74</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>-6,88</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>5,14</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>22,2</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1,86</t>
         </is>
       </c>
     </row>
@@ -579,17 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,56; 16,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,46; 38,24</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,29; 19,87</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-7,71; 21,34</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-9,57; 46,05</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-20,36; 5,85</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-3,16; 14,2</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>6,84; 36,58</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-8,19; 11,33</t>
         </is>
       </c>
     </row>
@@ -602,17 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,74%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>57,3%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,4%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>21,55%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>66,7%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>-24,5%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>15,14%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>65,35%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>5,47%</t>
         </is>
       </c>
     </row>
@@ -625,17 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,4; 53,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,08; 116,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,86; 60,15</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>-20,95; 107,19</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-31,97; 212,87</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-56,64; 30,23</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-8,61; 48,72</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>18,36; 117,97</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-21,45; 39,76</t>
         </is>
       </c>
     </row>
@@ -657,12 +853,42 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>-0,94</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>-9,8</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>3,6</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>56,39</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>-2,77</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>0,21</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>17,9</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-7,92</t>
         </is>
       </c>
     </row>
@@ -680,12 +906,42 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
+          <t>-24,27; 27,52</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>-18,79; 0,16</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>-6,95; 13,9</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>9,77; 73,11</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>-12,34; 6,99</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
         <is>
           <t>-6,23; 6,28</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-5,0; 40,34</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-14,82; -1,47</t>
         </is>
       </c>
     </row>
@@ -703,12 +959,42 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>-2,17%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>-22,73%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>12,26%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>191,89%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>-9,41%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>0,54%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>46,43%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-20,55%</t>
         </is>
       </c>
     </row>
@@ -726,12 +1012,42 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
+          <t>-53,21; 69,8</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>-41,21; -0,76</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>-19,03; 62,41</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>53,43; 294,59</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>-35,15; 30,79</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
         <is>
           <t>-15,24; 17,95</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-12,52; 109,31</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-36,14; -4,36</t>
         </is>
       </c>
     </row>
@@ -753,12 +1069,42 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
+          <t>-3,2</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>7,71</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>-0,36</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>9,67</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-2,76</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>-5,16</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1,89</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1,79</t>
         </is>
       </c>
     </row>
@@ -776,12 +1122,42 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
+          <t>-29,39; 25,82</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-3,44; 17,57</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>-14,29; 11,58</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-31,31; 76,35</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-14,14; 7,37</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
         <is>
           <t>-13,4; 2,57</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-22,3; 30,72</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-6,33; 9,31</t>
         </is>
       </c>
     </row>
@@ -799,12 +1175,42 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
+          <t>-7,56%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>18,22%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>-1,34%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>36,34%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>-10,38%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
         <is>
           <t>-14,06%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>5,15%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>4,87%</t>
         </is>
       </c>
     </row>
@@ -822,12 +1228,42 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
+          <t>-66,12; 67,15</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>-7,51; 46,23</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>-42,48; 56,09</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 334,63</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>-42,05; 36,45</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
         <is>
           <t>-32,42; 7,64</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-58,88; 87,63</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-15,52; 28,28</t>
         </is>
       </c>
     </row>
@@ -844,17 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>7,82</t>
+          <t>4,21</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4,15</t>
+          <t>9,07</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6,36</t>
+          <t>-7,17</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>-3,22</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>33,8</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0,95</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>16,7</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-4,04</t>
         </is>
       </c>
     </row>
@@ -867,17 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 15,11</t>
+          <t>-5,58; 12,71</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,22; 11,92</t>
+          <t>-6,5; 26,2</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,27; 12,7</t>
+          <t>-15,98; 1,78</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>-12,87; 5,44</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>3,53; 59,0</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-9,25; 11,5</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-5,56; 8,41</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>2,58; 31,45</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-10,49; 3,25</t>
         </is>
       </c>
     </row>
@@ -890,17 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>25,67%</t>
+          <t>13,81%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>19,22%</t>
+          <t>29,76%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>23,55%</t>
+          <t>-23,54%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>-14,92%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>156,69%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>4,38%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>4,45%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>61,88%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>-14,96%</t>
         </is>
       </c>
     </row>
@@ -913,17 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 58,94</t>
+          <t>-15,11; 49,33</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-19,67; 74,91</t>
+          <t>-19,75; 97,57</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,12; 56,43</t>
+          <t>-46,08; 7,63</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>-48,44; 34,86</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>17,56; 322,97</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>-36,79; 70,56</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-18,41; 35,18</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>9,03; 124,53</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-35,1; 13,79</t>
         </is>
       </c>
     </row>
@@ -945,12 +1501,42 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
+          <t>39,5</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>2,61</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
           <t>4,83</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>25,61</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-2,04</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
         <is>
           <t>13,43</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>34,72</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0,67</t>
         </is>
       </c>
     </row>
@@ -968,12 +1554,42 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
+          <t>-10,25; 77,37</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-8,47; 15,31</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
           <t>-10,06; 18,29</t>
         </is>
       </c>
-      <c r="E21" s="2" t="inlineStr">
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-34,98; 78,93</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-16,42; 12,55</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
         <is>
           <t>3,93; 22,58</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-8,29; 65,11</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-9,51; 9,72</t>
         </is>
       </c>
     </row>
@@ -991,12 +1607,42 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
+          <t>182,26%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>12,04%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
           <t>17,32%</t>
         </is>
       </c>
-      <c r="E22" s="2" t="inlineStr">
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>91,8%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-7,31%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
         <is>
           <t>55,26%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>142,86%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>2,75%</t>
         </is>
       </c>
     </row>
@@ -1014,12 +1660,42 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
+          <t>-31,42; 429,16</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-33,47; 98,48</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
           <t>-27,41; 94,31</t>
         </is>
       </c>
-      <c r="E23" s="2" t="inlineStr">
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 374,38</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-46,56; 68,23</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
         <is>
           <t>12,04; 112,08</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-32,51; 303,12</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-32,35; 48,81</t>
         </is>
       </c>
     </row>
@@ -1041,12 +1717,42 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
+          <t>-3,31</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>1,99</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
           <t>-2,03</t>
         </is>
       </c>
-      <c r="E24" s="2" t="inlineStr">
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>1,85</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>-0,43</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
         <is>
           <t>-2,49</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>-1,07</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>1,22</t>
         </is>
       </c>
     </row>
@@ -1064,12 +1770,42 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
+          <t>-29,58; 25,27</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>-10,52; 12,62</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
           <t>-16,14; 13,16</t>
         </is>
       </c>
-      <c r="E25" s="2" t="inlineStr">
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>-37,41; 71,18</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>-14,77; 14,11</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
         <is>
           <t>-11,52; 5,84</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-23,41; 22,29</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>-7,67; 9,91</t>
         </is>
       </c>
     </row>
@@ -1087,12 +1823,42 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
+          <t>-8,29%</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>4,97%</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
           <t>-6,43%</t>
         </is>
       </c>
-      <c r="E26" s="2" t="inlineStr">
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>5,86%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>-1,35%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
         <is>
           <t>-6,71%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>-2,87%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>3,29%</t>
         </is>
       </c>
     </row>
@@ -1110,12 +1876,42 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
+          <t>-67,97; 68,62</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>-23,09; 36,88</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
           <t>-41,63; 53,91</t>
         </is>
       </c>
-      <c r="E27" s="2" t="inlineStr">
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 258,19</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>-37,47; 61,38</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
         <is>
           <t>-28,38; 17,13</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>-58,55; 63,61</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>-19,17; 30,23</t>
         </is>
       </c>
     </row>
@@ -1137,12 +1933,42 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
+          <t>7,61</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>1,37</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
           <t>0,25</t>
         </is>
       </c>
-      <c r="E28" s="2" t="inlineStr">
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>2,86</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>0,35</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
         <is>
           <t>0,14</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>5,6</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>0,29</t>
         </is>
       </c>
     </row>
@@ -1160,12 +1986,42 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
+          <t>-10,88; 26,49</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>-6,79; 9,67</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
           <t>-7,44; 8,89</t>
         </is>
       </c>
-      <c r="E29" s="2" t="inlineStr">
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>-16,97; 24,97</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>-7,86; 8,92</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
         <is>
           <t>-5,81; 5,74</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-7,79; 20,41</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>-5,99; 6,41</t>
         </is>
       </c>
     </row>
@@ -1183,12 +2039,42 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
+          <t>21,22%</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>3,82%</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
           <t>0,9%</t>
         </is>
       </c>
-      <c r="E30" s="2" t="inlineStr">
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>10,25%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>1,27%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
         <is>
           <t>0,42%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>17,06%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>0,89%</t>
         </is>
       </c>
     </row>
@@ -1206,12 +2092,42 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
+          <t>-28,95; 78,72</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-17,79; 30,4</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
           <t>-23,23; 38,24</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-57,66; 94,96</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-24,17; 38,53</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
         <is>
           <t>-16,24; 19,63</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-21,79; 65,13</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-16,76; 21,3</t>
         </is>
       </c>
     </row>
@@ -1233,12 +2149,42 @@
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
+          <t>36,62</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>-19,4</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
           <t>0,07</t>
         </is>
       </c>
-      <c r="E32" s="2" t="inlineStr">
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>13,05</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>-11,3</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
         <is>
           <t>-1,99</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>33,66</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>-16,75</t>
         </is>
       </c>
     </row>
@@ -1256,12 +2202,42 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
+          <t>17,04; 50,61</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-32,17; -6,42</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
           <t>-8,04; 7,63</t>
         </is>
       </c>
-      <c r="E33" s="2" t="inlineStr">
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-18,15; 53,97</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-18,63; -3,66</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
         <is>
           <t>-6,67; 3,3</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>18,17; 48,52</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>-27,24; -7,3</t>
         </is>
       </c>
     </row>
@@ -1279,12 +2255,42 @@
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
+          <t>113,07%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>-59,9%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
           <t>0,28%</t>
         </is>
       </c>
-      <c r="E34" s="2" t="inlineStr">
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>50,0%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>-43,3%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
         <is>
           <t>-6,61%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>111,68%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>-55,57%</t>
         </is>
       </c>
     </row>
@@ -1302,12 +2308,42 @@
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
+          <t>51,26; 168,01</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>-87,29; -19,92</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
           <t>-26,36; 34,9</t>
         </is>
       </c>
-      <c r="E35" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>-59,39; 216,84</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>-62,57; -16,11</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
         <is>
           <t>-20,68; 12,35</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>54,16; 169,32</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>-82,27; -24,55</t>
         </is>
       </c>
     </row>
@@ -1329,12 +2365,42 @@
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
+          <t>14,46</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>-6,63</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
           <t>1,21</t>
         </is>
       </c>
-      <c r="E36" s="2" t="inlineStr">
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>18,6</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>-2,89</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
         <is>
           <t>0,67</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>16,44</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>-5,28</t>
         </is>
       </c>
     </row>
@@ -1352,12 +2418,42 @@
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
+          <t>6,45; 21,43</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>-18,9; -0,43</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
           <t>-2,73; 4,74</t>
         </is>
       </c>
-      <c r="E37" s="2" t="inlineStr">
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>6,24; 29,91</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>-6,48; 0,71</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
         <is>
           <t>-1,76; 3,24</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>10,14; 22,79</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>-12,91; -1,5</t>
         </is>
       </c>
     </row>
@@ -1375,12 +2471,42 @@
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
+          <t>40,33%</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>-18,49%</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
           <t>4,46%</t>
         </is>
       </c>
-      <c r="E38" s="2" t="inlineStr">
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>68,82%</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>-10,69%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
         <is>
           <t>2,07%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>50,37%</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>-16,18%</t>
         </is>
       </c>
     </row>
@@ -1398,12 +2524,42 @@
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
+          <t>18,57; 61,87</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>-51,88; -1,23</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
           <t>-9,46; 19,11</t>
         </is>
       </c>
-      <c r="E39" s="2" t="inlineStr">
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>22,6; 117,23</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>-22,14; 3,25</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
         <is>
           <t>-5,09; 10,26</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>31,52; 71,6</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>-39,43; -4,9</t>
         </is>
       </c>
     </row>
@@ -1415,12 +2571,15 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="13">
     <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A36:A39"/>
     <mergeCell ref="A8:A11"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>

--- a/data/trans_camb/Q23_R2-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/Q23_R2-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -637,7 +637,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>21,48</t>
+          <t>14,96</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -652,7 +652,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>18,74</t>
+          <t>6,21</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>22,2</t>
+          <t>10,88</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,56; 16,47</t>
+          <t>-6,03; 15,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,46; 38,24</t>
+          <t>3,09; 25,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,29; 19,87</t>
+          <t>-5,05; 21,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,71; 21,34</t>
+          <t>-8,29; 19,01</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-9,57; 46,05</t>
+          <t>-7,37; 19,66</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-20,36; 5,85</t>
+          <t>-20,65; 4,92</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 14,2</t>
+          <t>-3,64; 13,69</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,84; 36,58</t>
+          <t>2,17; 19,07</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-8,19; 11,33</t>
+          <t>-7,51; 12,25</t>
         </is>
       </c>
     </row>
@@ -743,7 +743,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>57,3%</t>
+          <t>39,9%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>66,7%</t>
+          <t>22,1%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>65,35%</t>
+          <t>32,03%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-15,4; 53,61</t>
+          <t>-13,89; 49,92</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,08; 116,07</t>
+          <t>5,86; 81,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-16,86; 60,15</t>
+          <t>-13,46; 66,69</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-20,95; 107,19</t>
+          <t>-23,8; 92,01</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-31,97; 212,87</t>
+          <t>-23,56; 100,03</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-56,64; 30,23</t>
+          <t>-54,27; 26,56</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-8,61; 48,72</t>
+          <t>-9,37; 50,11</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>18,36; 117,97</t>
+          <t>6,04; 66,23</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-21,45; 39,76</t>
+          <t>-20,03; 44,0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,94</t>
+          <t>-10,89</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>56,39</t>
+          <t>-2,21</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>17,9</t>
+          <t>-8,26</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,7; 6,84</t>
+          <t>-8,32; 7,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-24,27; 27,52</t>
+          <t>-18,7; -2,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-18,79; 0,16</t>
+          <t>-18,42; -0,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,95; 13,9</t>
+          <t>-7,46; 13,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,77; 73,11</t>
+          <t>-13,28; 8,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-12,34; 6,99</t>
+          <t>-13,09; 7,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-6,23; 6,28</t>
+          <t>-6,72; 6,78</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,0; 40,34</t>
+          <t>-15,02; -1,65</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-14,82; -1,47</t>
+          <t>-14,76; -1,16</t>
         </is>
       </c>
     </row>
@@ -959,7 +959,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-2,17%</t>
+          <t>-25,24%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -974,7 +974,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>191,89%</t>
+          <t>-7,53%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -989,7 +989,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>46,43%</t>
+          <t>-21,41%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-20,7; 17,33</t>
+          <t>-18,05; 19,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-53,21; 69,8</t>
+          <t>-39,88; -5,83</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-41,21; -0,76</t>
+          <t>-40,59; -0,83</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-19,03; 62,41</t>
+          <t>-20,62; 55,78</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>53,43; 294,59</t>
+          <t>-37,35; 35,03</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-35,15; 30,79</t>
+          <t>-37,86; 29,58</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-15,24; 17,95</t>
+          <t>-16,09; 19,66</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-12,52; 109,31</t>
+          <t>-36,01; -4,83</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-36,14; -4,36</t>
+          <t>-36,28; -3,53</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-3,2</t>
+          <t>-10,83</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -1084,7 +1084,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>9,67</t>
+          <t>1,37</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1099,7 +1099,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,89</t>
+          <t>-6,61</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-18,04; 1,71</t>
+          <t>-17,06; 1,84</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-29,39; 25,82</t>
+          <t>-21,41; -1,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 17,57</t>
+          <t>-4,11; 17,76</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-14,29; 11,58</t>
+          <t>-13,34; 11,2</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-31,31; 76,35</t>
+          <t>-11,29; 12,64</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-14,14; 7,37</t>
+          <t>-14,06; 8,04</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-13,4; 2,57</t>
+          <t>-13,01; 2,42</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-22,3; 30,72</t>
+          <t>-15,12; 1,32</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-6,33; 9,31</t>
+          <t>-6,35; 9,21</t>
         </is>
       </c>
     </row>
@@ -1175,7 +1175,7 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-7,56%</t>
+          <t>-25,58%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1190,7 +1190,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>36,34%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1205,7 +1205,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>5,15%</t>
+          <t>-18,01%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-38,52; 4,8</t>
+          <t>-36,59; 4,78</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-66,12; 67,15</t>
+          <t>-46,69; -2,67</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-7,51; 46,23</t>
+          <t>-9,21; 46,42</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-42,48; 56,09</t>
+          <t>-40,19; 52,97</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 334,63</t>
+          <t>-35,47; 60,18</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-42,05; 36,45</t>
+          <t>-43,06; 39,57</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-32,42; 7,64</t>
+          <t>-32,46; 7,3</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-58,88; 87,63</t>
+          <t>-35,95; 4,73</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-15,52; 28,28</t>
+          <t>-15,86; 27,37</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>9,07</t>
+          <t>10,12</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
@@ -1300,7 +1300,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>33,8</t>
+          <t>5,2</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1315,7 +1315,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>16,7</t>
+          <t>8,03</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,58; 12,71</t>
+          <t>-5,93; 13,68</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,5; 26,2</t>
+          <t>-0,03; 18,89</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-15,98; 1,78</t>
+          <t>-17,04; 1,74</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-12,87; 5,44</t>
+          <t>-12,84; 6,61</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,53; 59,0</t>
+          <t>-4,94; 14,8</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-9,25; 11,5</t>
+          <t>-8,73; 10,77</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 8,41</t>
+          <t>-5,7; 7,35</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,58; 31,45</t>
+          <t>0,81; 14,39</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-10,49; 3,25</t>
+          <t>-10,68; 2,46</t>
         </is>
       </c>
     </row>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>29,76%</t>
+          <t>33,22%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -1406,7 +1406,7 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>156,69%</t>
+          <t>24,11%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1421,7 +1421,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>61,88%</t>
+          <t>29,77%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-15,11; 49,33</t>
+          <t>-16,97; 52,87</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-19,75; 97,57</t>
+          <t>-0,13; 72,64</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-46,08; 7,63</t>
+          <t>-48,87; 6,38</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-48,44; 34,86</t>
+          <t>-47,78; 43,02</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>17,56; 322,97</t>
+          <t>-19,14; 85,06</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-36,79; 70,56</t>
+          <t>-33,18; 62,74</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-18,41; 35,18</t>
+          <t>-18,7; 31,87</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>9,03; 124,53</t>
+          <t>3,07; 61,92</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-35,1; 13,79</t>
+          <t>-35,29; 10,9</t>
         </is>
       </c>
     </row>
@@ -1501,7 +1501,7 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>39,5</t>
+          <t>10,43</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
@@ -1516,7 +1516,7 @@
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>25,61</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>34,72</t>
+          <t>6,22</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>7,98; 29,67</t>
+          <t>7,99; 30,41</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-10,25; 77,37</t>
+          <t>-0,73; 21,65</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-8,47; 15,31</t>
+          <t>-9,34; 13,77</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-10,06; 18,29</t>
+          <t>-9,25; 18,31</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-34,98; 78,93</t>
+          <t>-14,21; 14,47</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-16,42; 12,55</t>
+          <t>-16,18; 12,63</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>3,93; 22,58</t>
+          <t>3,79; 22,56</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-8,29; 65,11</t>
+          <t>-3,32; 15,07</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-9,51; 9,72</t>
+          <t>-8,53; 9,71</t>
         </is>
       </c>
     </row>
@@ -1607,7 +1607,7 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>182,26%</t>
+          <t>48,11%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
@@ -1622,7 +1622,7 @@
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>91,8%</t>
+          <t>0,35%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
@@ -1637,7 +1637,7 @@
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>142,86%</t>
+          <t>25,59%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
@@ -1655,54 +1655,54 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>28,76; 188,77</t>
+          <t>29,0; 188,33</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-31,42; 429,16</t>
+          <t>-4,46; 134,36</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-33,47; 98,48</t>
+          <t>-35,24; 86,2</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-27,41; 94,31</t>
+          <t>-27,43; 88,82</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 374,38</t>
+          <t>-41,7; 75,11</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-46,56; 68,23</t>
+          <t>-45,91; 64,03</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>12,04; 112,08</t>
+          <t>12,15; 114,43</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-32,51; 303,12</t>
+          <t>-11,43; 75,48</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-32,35; 48,81</t>
+          <t>-29,56; 48,33</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-3,31</t>
+          <t>-11,5</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
@@ -1732,7 +1732,7 @@
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>1,85</t>
+          <t>-17,91</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-1,07</t>
+          <t>-14,59</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-13,43; 8,1</t>
+          <t>-13,46; 9,42</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-29,58; 25,27</t>
+          <t>-22,92; -0,07</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-10,52; 12,62</t>
+          <t>-9,93; 13,66</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-16,14; 13,16</t>
+          <t>-16,75; 10,72</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-37,41; 71,18</t>
+          <t>-30,32; -6,1</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-14,77; 14,11</t>
+          <t>-15,43; 13,88</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-11,52; 5,84</t>
+          <t>-11,52; 6,2</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-23,41; 22,29</t>
+          <t>-24,08; -5,71</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-7,67; 9,91</t>
+          <t>-8,48; 9,53</t>
         </is>
       </c>
     </row>
@@ -1823,7 +1823,7 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-8,29%</t>
+          <t>-28,8%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
@@ -1838,7 +1838,7 @@
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>5,86%</t>
+          <t>-56,82%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
@@ -1853,7 +1853,7 @@
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-2,87%</t>
+          <t>-39,28%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-29,27; 22,62</t>
+          <t>-30,16; 27,06</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-67,97; 68,62</t>
+          <t>-50,14; 0,96</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-23,09; 36,88</t>
+          <t>-21,85; 40,23</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-41,63; 53,91</t>
+          <t>-42,32; 46,6</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 258,19</t>
+          <t>-78,08; -21,12</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-37,47; 61,38</t>
+          <t>-38,87; 56,97</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-28,38; 17,13</t>
+          <t>-27,49; 18,98</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-58,55; 63,61</t>
+          <t>-56,64; -17,87</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-19,17; 30,23</t>
+          <t>-19,98; 29,95</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1933,7 +1933,7 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>7,61</t>
+          <t>-2,83</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
@@ -1948,7 +1948,7 @@
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>2,86</t>
+          <t>-4,61</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
@@ -1963,7 +1963,7 @@
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>5,6</t>
+          <t>-4,13</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-6,41; 7,55</t>
+          <t>-6,6; 7,32</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-10,88; 26,49</t>
+          <t>-10,26; 5,59</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-6,79; 9,67</t>
+          <t>-7,24; 9,72</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-7,44; 8,89</t>
+          <t>-8,07; 8,92</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-16,97; 24,97</t>
+          <t>-12,47; 4,25</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-7,86; 8,92</t>
+          <t>-8,54; 8,99</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-5,81; 5,74</t>
+          <t>-6,25; 5,68</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-7,79; 20,41</t>
+          <t>-10,22; 1,61</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-5,99; 6,41</t>
+          <t>-6,24; 6,37</t>
         </is>
       </c>
     </row>
@@ -2039,7 +2039,7 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>21,22%</t>
+          <t>-7,9%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
@@ -2054,7 +2054,7 @@
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>10,25%</t>
+          <t>-16,55%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
@@ -2069,7 +2069,7 @@
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>17,06%</t>
+          <t>-12,58%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-16,23; 24,42</t>
+          <t>-16,87; 23,52</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-28,95; 78,72</t>
+          <t>-26,23; 17,55</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-17,79; 30,4</t>
+          <t>-18,09; 29,9</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-23,23; 38,24</t>
+          <t>-25,16; 38,21</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-57,66; 94,96</t>
+          <t>-38,65; 18,02</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-24,17; 38,53</t>
+          <t>-26,01; 38,16</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-16,24; 19,63</t>
+          <t>-16,97; 19,38</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-21,79; 65,13</t>
+          <t>-27,91; 5,93</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-16,76; 21,3</t>
+          <t>-16,79; 21,7</t>
         </is>
       </c>
     </row>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>36,62</t>
+          <t>5,4</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
@@ -2164,7 +2164,7 @@
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>13,05</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
@@ -2179,7 +2179,7 @@
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>33,66</t>
+          <t>2,6</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-9,21; 2,77</t>
+          <t>-9,92; 3,58</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>17,04; 50,61</t>
+          <t>-1,44; 12,16</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-32,17; -6,42</t>
+          <t>-33,65; -5,85</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-8,04; 7,63</t>
+          <t>-8,42; 7,7</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-18,15; 53,97</t>
+          <t>-8,16; 7,99</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-18,63; -3,66</t>
+          <t>-19,76; -4,25</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-6,67; 3,3</t>
+          <t>-7,06; 3,36</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>18,17; 48,52</t>
+          <t>-2,56; 7,57</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-27,24; -7,3</t>
+          <t>-26,91; -7,48</t>
         </is>
       </c>
     </row>
@@ -2255,7 +2255,7 @@
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>113,07%</t>
+          <t>16,66%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
@@ -2270,7 +2270,7 @@
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>50,0%</t>
+          <t>-0,1%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
@@ -2285,7 +2285,7 @@
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>111,68%</t>
+          <t>8,62%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-25,65; 10,31</t>
+          <t>-27,79; 12,19</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>51,26; 168,01</t>
+          <t>-4,13; 42,31</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-87,29; -19,92</t>
+          <t>-88,73; -18,06</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-26,36; 34,9</t>
+          <t>-27,88; 35,04</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-59,39; 216,84</t>
+          <t>-26,6; 39,3</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-62,57; -16,11</t>
+          <t>-63,84; -16,79</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-20,68; 12,35</t>
+          <t>-21,31; 12,27</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>54,16; 169,32</t>
+          <t>-7,64; 28,07</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-82,27; -24,55</t>
+          <t>-83,76; -25,39</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>14,46</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
@@ -2380,7 +2380,7 @@
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>18,6</t>
+          <t>-1,05</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
@@ -2395,7 +2395,7 @@
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>16,44</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 3,63</t>
+          <t>-2,73; 3,53</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>6,45; 21,43</t>
+          <t>-2,85; 3,69</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-18,9; -0,43</t>
+          <t>-17,61; -0,43</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 4,74</t>
+          <t>-2,57; 5,01</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>6,24; 29,91</t>
+          <t>-4,77; 2,74</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-6,48; 0,71</t>
+          <t>-6,82; 0,63</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 3,24</t>
+          <t>-1,92; 2,99</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>10,14; 22,79</t>
+          <t>-3,18; 1,79</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-12,91; -1,5</t>
+          <t>-13,67; -1,54</t>
         </is>
       </c>
     </row>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>40,33%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
@@ -2486,7 +2486,7 @@
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>68,82%</t>
+          <t>-3,89%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
@@ -2501,7 +2501,7 @@
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>50,37%</t>
+          <t>-1,91%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-7,04; 10,68</t>
+          <t>-7,28; 10,35</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>18,57; 61,87</t>
+          <t>-7,63; 10,84</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-51,88; -1,23</t>
+          <t>-49,18; -1,21</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-9,46; 19,11</t>
+          <t>-8,76; 19,97</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>22,6; 117,23</t>
+          <t>-16,39; 11,15</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-22,14; 3,25</t>
+          <t>-23,09; 2,77</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 10,26</t>
+          <t>-5,84; 9,41</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>31,52; 71,6</t>
+          <t>-9,53; 5,67</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-39,43; -4,9</t>
+          <t>-40,46; -4,74</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/Q23_R2-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/Q23_R2-Provincia-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -63,13 +63,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -504,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,9 +516,6 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
-    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -541,21 +531,18 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +559,22 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2023/2007</t>
+          <t>2012/2007</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>2016/2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>2012/2007</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>2016/2007</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>2023/2007</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>2012/2007</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>2016/2007</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>2023/2007</t>
         </is>
       </c>
     </row>
@@ -615,9 +587,6 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
-      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -642,37 +611,22 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,9</t>
+          <t>6,06</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,06</t>
+          <t>6,21</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>6,21</t>
+          <t>5,14</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-6,88</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>5,14</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
           <t>10,88</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>1,86</t>
         </is>
       </c>
     </row>
@@ -695,37 +649,22 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,05; 21,36</t>
+          <t>-8,29; 19,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,29; 19,01</t>
+          <t>-7,37; 19,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,37; 19,66</t>
+          <t>-3,64; 13,69</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-20,65; 4,92</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-3,64; 13,69</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
           <t>2,17; 19,07</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-7,51; 12,25</t>
         </is>
       </c>
     </row>
@@ -748,37 +687,22 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>18,4%</t>
+          <t>21,55%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>21,55%</t>
+          <t>22,1%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>22,1%</t>
+          <t>15,14%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-24,5%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>15,14%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
           <t>32,03%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>5,47%</t>
         </is>
       </c>
     </row>
@@ -801,37 +725,22 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-13,46; 66,69</t>
+          <t>-23,8; 92,01</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-23,8; 92,01</t>
+          <t>-23,56; 100,03</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-23,56; 100,03</t>
+          <t>-9,37; 50,11</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-54,27; 26,56</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-9,37; 50,11</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
           <t>6,04; 66,23</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-20,03; 44,0</t>
         </is>
       </c>
     </row>
@@ -858,37 +767,22 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-9,8</t>
+          <t>3,6</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,6</t>
+          <t>-2,21</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,21</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-2,77</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>0,21</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
           <t>-8,26</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-7,92</t>
         </is>
       </c>
     </row>
@@ -911,37 +805,22 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-18,42; -0,42</t>
+          <t>-7,46; 13,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,46; 13,56</t>
+          <t>-13,28; 8,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-13,28; 8,24</t>
+          <t>-6,72; 6,78</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-13,09; 7,37</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-6,72; 6,78</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
           <t>-15,02; -1,65</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-14,76; -1,16</t>
         </is>
       </c>
     </row>
@@ -964,37 +843,22 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-22,73%</t>
+          <t>12,26%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12,26%</t>
+          <t>-7,53%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-7,53%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-9,41%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>0,54%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
           <t>-21,41%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>-20,55%</t>
         </is>
       </c>
     </row>
@@ -1017,37 +881,22 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-40,59; -0,83</t>
+          <t>-20,62; 55,78</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-20,62; 55,78</t>
+          <t>-37,35; 35,03</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-37,35; 35,03</t>
+          <t>-16,09; 19,66</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-37,86; 29,58</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-16,09; 19,66</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
           <t>-36,01; -4,83</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-36,28; -3,53</t>
         </is>
       </c>
     </row>
@@ -1074,37 +923,22 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>7,71</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>1,37</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,37</t>
+          <t>-5,16</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-2,76</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-5,16</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
           <t>-6,61</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>1,79</t>
         </is>
       </c>
     </row>
@@ -1127,37 +961,22 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 17,76</t>
+          <t>-13,34; 11,2</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-13,34; 11,2</t>
+          <t>-11,29; 12,64</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-11,29; 12,64</t>
+          <t>-13,01; 2,42</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-14,06; 8,04</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-13,01; 2,42</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
           <t>-15,12; 1,32</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-6,35; 9,21</t>
         </is>
       </c>
     </row>
@@ -1180,37 +999,22 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>18,22%</t>
+          <t>-1,34%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-1,34%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>5,16%</t>
+          <t>-14,06%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-10,38%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-14,06%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
           <t>-18,01%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>4,87%</t>
         </is>
       </c>
     </row>
@@ -1233,37 +1037,22 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-9,21; 46,42</t>
+          <t>-40,19; 52,97</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-40,19; 52,97</t>
+          <t>-35,47; 60,18</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-35,47; 60,18</t>
+          <t>-32,46; 7,3</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-43,06; 39,57</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-32,46; 7,3</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
           <t>-35,95; 4,73</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>-15,86; 27,37</t>
         </is>
       </c>
     </row>
@@ -1290,37 +1079,22 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-7,17</t>
+          <t>-3,22</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-3,22</t>
+          <t>5,2</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>5,2</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
           <t>8,03</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>-4,04</t>
         </is>
       </c>
     </row>
@@ -1343,37 +1117,22 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-17,04; 1,74</t>
+          <t>-12,84; 6,61</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-12,84; 6,61</t>
+          <t>-4,94; 14,8</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 14,8</t>
+          <t>-5,7; 7,35</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,73; 10,77</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>-5,7; 7,35</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
           <t>0,81; 14,39</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>-10,68; 2,46</t>
         </is>
       </c>
     </row>
@@ -1396,37 +1155,22 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-23,54%</t>
+          <t>-14,92%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-14,92%</t>
+          <t>24,11%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>24,11%</t>
+          <t>4,45%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>4,38%</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>4,45%</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
           <t>29,77%</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>-14,96%</t>
         </is>
       </c>
     </row>
@@ -1449,37 +1193,22 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-48,87; 6,38</t>
+          <t>-47,78; 43,02</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-47,78; 43,02</t>
+          <t>-19,14; 85,06</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-19,14; 85,06</t>
+          <t>-18,7; 31,87</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-33,18; 62,74</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>-18,7; 31,87</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
           <t>3,07; 61,92</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>-35,29; 10,9</t>
         </is>
       </c>
     </row>
@@ -1506,37 +1235,22 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>2,61</t>
+          <t>4,83</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>4,83</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>13,43</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-2,04</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>13,43</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
           <t>6,22</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>0,67</t>
         </is>
       </c>
     </row>
@@ -1559,37 +1273,22 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-9,34; 13,77</t>
+          <t>-9,25; 18,31</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-9,25; 18,31</t>
+          <t>-14,21; 14,47</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-14,21; 14,47</t>
+          <t>3,79; 22,56</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-16,18; 12,63</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>3,79; 22,56</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
           <t>-3,32; 15,07</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>-8,53; 9,71</t>
         </is>
       </c>
     </row>
@@ -1612,37 +1311,22 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>12,04%</t>
+          <t>17,32%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>17,32%</t>
+          <t>0,35%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>0,35%</t>
+          <t>55,26%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-7,31%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>55,26%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
           <t>25,59%</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>2,75%</t>
         </is>
       </c>
     </row>
@@ -1665,37 +1349,22 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-35,24; 86,2</t>
+          <t>-27,43; 88,82</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-27,43; 88,82</t>
+          <t>-41,7; 75,11</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-41,7; 75,11</t>
+          <t>12,15; 114,43</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-45,91; 64,03</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>12,15; 114,43</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
           <t>-11,43; 75,48</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>-29,56; 48,33</t>
         </is>
       </c>
     </row>
@@ -1722,37 +1391,22 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>1,99</t>
+          <t>-2,03</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-2,03</t>
+          <t>-17,91</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-17,91</t>
+          <t>-2,49</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-0,43</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>-2,49</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
           <t>-14,59</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>1,22</t>
         </is>
       </c>
     </row>
@@ -1775,37 +1429,22 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-9,93; 13,66</t>
+          <t>-16,75; 10,72</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-16,75; 10,72</t>
+          <t>-30,32; -6,1</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-30,32; -6,1</t>
+          <t>-11,52; 6,2</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-15,43; 13,88</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>-11,52; 6,2</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
           <t>-24,08; -5,71</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>-8,48; 9,53</t>
         </is>
       </c>
     </row>
@@ -1828,37 +1467,22 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>4,97%</t>
+          <t>-6,43%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-6,43%</t>
+          <t>-56,82%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-56,82%</t>
+          <t>-6,71%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-1,35%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>-6,71%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
           <t>-39,28%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>3,29%</t>
         </is>
       </c>
     </row>
@@ -1881,37 +1505,22 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-21,85; 40,23</t>
+          <t>-42,32; 46,6</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-42,32; 46,6</t>
+          <t>-78,08; -21,12</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-78,08; -21,12</t>
+          <t>-27,49; 18,98</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-38,87; 56,97</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>-27,49; 18,98</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
           <t>-56,64; -17,87</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>-19,98; 29,95</t>
         </is>
       </c>
     </row>
@@ -1938,37 +1547,22 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>1,37</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>-4,61</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-4,61</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
-        </is>
-      </c>
-      <c r="I28" s="2" t="inlineStr">
-        <is>
-          <t>0,14</t>
-        </is>
-      </c>
-      <c r="J28" s="2" t="inlineStr">
-        <is>
           <t>-4,13</t>
-        </is>
-      </c>
-      <c r="K28" s="2" t="inlineStr">
-        <is>
-          <t>0,29</t>
         </is>
       </c>
     </row>
@@ -1991,37 +1585,22 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-7,24; 9,72</t>
+          <t>-8,07; 8,92</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-8,07; 8,92</t>
+          <t>-12,47; 4,25</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-12,47; 4,25</t>
+          <t>-6,25; 5,68</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-8,54; 8,99</t>
-        </is>
-      </c>
-      <c r="I29" s="2" t="inlineStr">
-        <is>
-          <t>-6,25; 5,68</t>
-        </is>
-      </c>
-      <c r="J29" s="2" t="inlineStr">
-        <is>
           <t>-10,22; 1,61</t>
-        </is>
-      </c>
-      <c r="K29" s="2" t="inlineStr">
-        <is>
-          <t>-6,24; 6,37</t>
         </is>
       </c>
     </row>
@@ -2044,37 +1623,22 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>3,82%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>0,9%</t>
+          <t>-16,55%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-16,55%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>1,27%</t>
-        </is>
-      </c>
-      <c r="I30" s="2" t="inlineStr">
-        <is>
-          <t>0,42%</t>
-        </is>
-      </c>
-      <c r="J30" s="2" t="inlineStr">
-        <is>
           <t>-12,58%</t>
-        </is>
-      </c>
-      <c r="K30" s="2" t="inlineStr">
-        <is>
-          <t>0,89%</t>
         </is>
       </c>
     </row>
@@ -2097,37 +1661,22 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-18,09; 29,9</t>
+          <t>-25,16; 38,21</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-25,16; 38,21</t>
+          <t>-38,65; 18,02</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-38,65; 18,02</t>
+          <t>-16,97; 19,38</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-26,01; 38,16</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
-        <is>
-          <t>-16,97; 19,38</t>
-        </is>
-      </c>
-      <c r="J31" s="2" t="inlineStr">
-        <is>
           <t>-27,91; 5,93</t>
-        </is>
-      </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>-16,79; 21,7</t>
         </is>
       </c>
     </row>
@@ -2154,37 +1703,22 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>-19,4</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>-1,99</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>-11,3</t>
-        </is>
-      </c>
-      <c r="I32" s="2" t="inlineStr">
-        <is>
-          <t>-1,99</t>
-        </is>
-      </c>
-      <c r="J32" s="2" t="inlineStr">
-        <is>
           <t>2,6</t>
-        </is>
-      </c>
-      <c r="K32" s="2" t="inlineStr">
-        <is>
-          <t>-16,75</t>
         </is>
       </c>
     </row>
@@ -2207,37 +1741,22 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-33,65; -5,85</t>
+          <t>-8,42; 7,7</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-8,42; 7,7</t>
+          <t>-8,16; 7,99</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-8,16; 7,99</t>
+          <t>-7,06; 3,36</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-19,76; -4,25</t>
-        </is>
-      </c>
-      <c r="I33" s="2" t="inlineStr">
-        <is>
-          <t>-7,06; 3,36</t>
-        </is>
-      </c>
-      <c r="J33" s="2" t="inlineStr">
-        <is>
           <t>-2,56; 7,57</t>
-        </is>
-      </c>
-      <c r="K33" s="2" t="inlineStr">
-        <is>
-          <t>-26,91; -7,48</t>
         </is>
       </c>
     </row>
@@ -2260,37 +1779,22 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>-59,9%</t>
+          <t>0,28%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>0,28%</t>
+          <t>-0,1%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>-0,1%</t>
+          <t>-6,61%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>-43,3%</t>
-        </is>
-      </c>
-      <c r="I34" s="2" t="inlineStr">
-        <is>
-          <t>-6,61%</t>
-        </is>
-      </c>
-      <c r="J34" s="2" t="inlineStr">
-        <is>
           <t>8,62%</t>
-        </is>
-      </c>
-      <c r="K34" s="2" t="inlineStr">
-        <is>
-          <t>-55,57%</t>
         </is>
       </c>
     </row>
@@ -2313,37 +1817,22 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-88,73; -18,06</t>
+          <t>-27,88; 35,04</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-27,88; 35,04</t>
+          <t>-26,6; 39,3</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-26,6; 39,3</t>
+          <t>-21,31; 12,27</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-63,84; -16,79</t>
-        </is>
-      </c>
-      <c r="I35" s="2" t="inlineStr">
-        <is>
-          <t>-21,31; 12,27</t>
-        </is>
-      </c>
-      <c r="J35" s="2" t="inlineStr">
-        <is>
           <t>-7,64; 28,07</t>
-        </is>
-      </c>
-      <c r="K35" s="2" t="inlineStr">
-        <is>
-          <t>-83,76; -25,39</t>
         </is>
       </c>
     </row>
@@ -2370,37 +1859,22 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>-6,63</t>
+          <t>1,21</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>-1,05</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>-1,05</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>-2,89</t>
-        </is>
-      </c>
-      <c r="I36" s="2" t="inlineStr">
-        <is>
-          <t>0,67</t>
-        </is>
-      </c>
-      <c r="J36" s="2" t="inlineStr">
-        <is>
           <t>-0,62</t>
-        </is>
-      </c>
-      <c r="K36" s="2" t="inlineStr">
-        <is>
-          <t>-5,28</t>
         </is>
       </c>
     </row>
@@ -2423,37 +1897,22 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-17,61; -0,43</t>
+          <t>-2,57; 5,01</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 5,01</t>
+          <t>-4,77; 2,74</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 2,74</t>
+          <t>-1,92; 2,99</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-6,82; 0,63</t>
-        </is>
-      </c>
-      <c r="I37" s="2" t="inlineStr">
-        <is>
-          <t>-1,92; 2,99</t>
-        </is>
-      </c>
-      <c r="J37" s="2" t="inlineStr">
-        <is>
           <t>-3,18; 1,79</t>
-        </is>
-      </c>
-      <c r="K37" s="2" t="inlineStr">
-        <is>
-          <t>-13,67; -1,54</t>
         </is>
       </c>
     </row>
@@ -2476,37 +1935,22 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>-18,49%</t>
+          <t>4,46%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>4,46%</t>
+          <t>-3,89%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>-3,89%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>-10,69%</t>
-        </is>
-      </c>
-      <c r="I38" s="2" t="inlineStr">
-        <is>
-          <t>2,07%</t>
-        </is>
-      </c>
-      <c r="J38" s="2" t="inlineStr">
-        <is>
           <t>-1,91%</t>
-        </is>
-      </c>
-      <c r="K38" s="2" t="inlineStr">
-        <is>
-          <t>-16,18%</t>
         </is>
       </c>
     </row>
@@ -2529,37 +1973,22 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-49,18; -1,21</t>
+          <t>-8,76; 19,97</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-8,76; 19,97</t>
+          <t>-16,39; 11,15</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-16,39; 11,15</t>
+          <t>-5,84; 9,41</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-23,09; 2,77</t>
-        </is>
-      </c>
-      <c r="I39" s="2" t="inlineStr">
-        <is>
-          <t>-5,84; 9,41</t>
-        </is>
-      </c>
-      <c r="J39" s="2" t="inlineStr">
-        <is>
           <t>-9,53; 5,67</t>
-        </is>
-      </c>
-      <c r="K39" s="2" t="inlineStr">
-        <is>
-          <t>-40,46; -4,74</t>
         </is>
       </c>
     </row>
@@ -2574,12 +2003,12 @@
   <mergeCells count="13">
     <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A36:A39"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
